--- a/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_3BE_EN.xlsx
+++ b/Document/My Ais/T9_IOS/Test/T9_Test_MyAIS_APP_IOS_3BE_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RobotFramework\Document\My Ais\T9_IOS\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PamNi\Work\2016\Automate\MyAIS\T9 IOS\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Hamburger" sheetId="27" r:id="rId1"/>
@@ -27712,7 +27712,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="728">
+  <cellXfs count="729">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -29334,76 +29334,14 @@
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -29486,6 +29424,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -29498,24 +29452,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -29529,29 +29577,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -29580,58 +29610,25 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -29652,16 +29649,19 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29670,37 +29670,46 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="20" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="22" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="20" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="46" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="39" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="20" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -29711,7 +29720,7 @@
     <xf numFmtId="0" fontId="19" fillId="28" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="19" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29732,14 +29741,8 @@
     <xf numFmtId="0" fontId="69" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -34374,10 +34377,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="413" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="597" t="s">
+      <c r="A2" s="599" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="597"/>
+      <c r="B2" s="599"/>
       <c r="C2" s="590"/>
       <c r="D2" s="590"/>
       <c r="E2" s="590"/>
@@ -34599,10 +34602,10 @@
       <c r="K12" s="592"/>
     </row>
     <row r="13" spans="1:11" s="583" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="597" t="s">
+      <c r="A13" s="599" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="597"/>
+      <c r="B13" s="599"/>
       <c r="C13" s="581"/>
       <c r="D13" s="581"/>
       <c r="E13" s="581"/>
@@ -34677,10 +34680,10 @@
       <c r="K16" s="592"/>
     </row>
     <row r="17" spans="1:11" s="583" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="597" t="s">
+      <c r="A17" s="599" t="s">
         <v>2214</v>
       </c>
-      <c r="B17" s="597"/>
+      <c r="B17" s="599"/>
       <c r="C17" s="581"/>
       <c r="D17" s="581"/>
       <c r="E17" s="581"/>
@@ -42247,11 +42250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
@@ -42267,7 +42270,7 @@
     <col min="12" max="12" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="80" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="80" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>56</v>
       </c>
@@ -42302,11 +42305,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="699" t="s">
+    <row r="2" spans="1:11" s="83" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="701" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="699"/>
+      <c r="B2" s="701"/>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
@@ -42317,7 +42320,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" s="515" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="510" t="s">
         <v>1487</v>
       </c>
@@ -42337,7 +42340,7 @@
       <c r="I3" s="514"/>
       <c r="J3" s="514"/>
     </row>
-    <row r="4" spans="1:11" s="515" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="510" t="s">
         <v>1488</v>
       </c>
@@ -42357,7 +42360,7 @@
       <c r="I4" s="514"/>
       <c r="J4" s="514"/>
     </row>
-    <row r="5" spans="1:11" s="515" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="510" t="s">
         <v>1489</v>
       </c>
@@ -42377,7 +42380,7 @@
       <c r="I5" s="514"/>
       <c r="J5" s="514"/>
     </row>
-    <row r="6" spans="1:11" s="515" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="510" t="s">
         <v>1490</v>
       </c>
@@ -42397,7 +42400,7 @@
       <c r="I6" s="514"/>
       <c r="J6" s="514"/>
     </row>
-    <row r="7" spans="1:11" s="515" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="510" t="s">
         <v>1491</v>
       </c>
@@ -42417,7 +42420,7 @@
       <c r="I7" s="514"/>
       <c r="J7" s="514"/>
     </row>
-    <row r="8" spans="1:11" s="515" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="510" t="s">
         <v>1492</v>
       </c>
@@ -42437,7 +42440,7 @@
       <c r="I8" s="514"/>
       <c r="J8" s="514"/>
     </row>
-    <row r="9" spans="1:11" s="515" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="510" t="s">
         <v>1493</v>
       </c>
@@ -42457,7 +42460,7 @@
       <c r="I9" s="514"/>
       <c r="J9" s="514"/>
     </row>
-    <row r="10" spans="1:11" s="515" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="510" t="s">
         <v>1494</v>
       </c>
@@ -42477,7 +42480,7 @@
       <c r="I10" s="514"/>
       <c r="J10" s="514"/>
     </row>
-    <row r="11" spans="1:11" s="515" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="510" t="s">
         <v>1495</v>
       </c>
@@ -42497,7 +42500,7 @@
       <c r="I11" s="514"/>
       <c r="J11" s="514"/>
     </row>
-    <row r="12" spans="1:11" s="515" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="510" t="s">
         <v>1496</v>
       </c>
@@ -42517,11 +42520,11 @@
       <c r="I12" s="514"/>
       <c r="J12" s="514"/>
     </row>
-    <row r="13" spans="1:11" s="83" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="699" t="s">
+    <row r="13" spans="1:11" s="83" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="701" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="699"/>
+      <c r="B13" s="701"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
@@ -42532,7 +42535,7 @@
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
     </row>
-    <row r="14" spans="1:11" s="515" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="510" t="s">
         <v>1497</v>
       </c>
@@ -42552,7 +42555,7 @@
       <c r="I14" s="514"/>
       <c r="J14" s="514"/>
     </row>
-    <row r="15" spans="1:11" s="515" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="510" t="s">
         <v>1498</v>
       </c>
@@ -42572,7 +42575,7 @@
       <c r="I15" s="514"/>
       <c r="J15" s="514"/>
     </row>
-    <row r="16" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="510" t="s">
         <v>1499</v>
       </c>
@@ -42592,7 +42595,7 @@
       <c r="I16" s="514"/>
       <c r="J16" s="514"/>
     </row>
-    <row r="17" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="510" t="s">
         <v>1500</v>
       </c>
@@ -42612,7 +42615,7 @@
       <c r="I17" s="514"/>
       <c r="J17" s="514"/>
     </row>
-    <row r="18" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="510" t="s">
         <v>1501</v>
       </c>
@@ -42632,7 +42635,7 @@
       <c r="I18" s="514"/>
       <c r="J18" s="514"/>
     </row>
-    <row r="19" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="510" t="s">
         <v>1502</v>
       </c>
@@ -42652,7 +42655,7 @@
       <c r="I19" s="514"/>
       <c r="J19" s="514"/>
     </row>
-    <row r="20" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="510" t="s">
         <v>1503</v>
       </c>
@@ -42672,7 +42675,7 @@
       <c r="I20" s="514"/>
       <c r="J20" s="514"/>
     </row>
-    <row r="21" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="510" t="s">
         <v>1504</v>
       </c>
@@ -42692,7 +42695,7 @@
       <c r="I21" s="514"/>
       <c r="J21" s="514"/>
     </row>
-    <row r="22" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="510" t="s">
         <v>1505</v>
       </c>
@@ -42712,7 +42715,7 @@
       <c r="I22" s="514"/>
       <c r="J22" s="514"/>
     </row>
-    <row r="23" spans="1:11" s="515" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="510" t="s">
         <v>1506</v>
       </c>
@@ -42732,7 +42735,7 @@
       <c r="I23" s="514"/>
       <c r="J23" s="514"/>
     </row>
-    <row r="24" spans="1:11" s="515" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="510" t="s">
         <v>1507</v>
       </c>
@@ -42752,7 +42755,7 @@
       <c r="I24" s="514"/>
       <c r="J24" s="514"/>
     </row>
-    <row r="25" spans="1:11" s="515" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="515" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="510" t="s">
         <v>1508</v>
       </c>
@@ -42772,11 +42775,11 @@
       <c r="I25" s="514"/>
       <c r="J25" s="514"/>
     </row>
-    <row r="26" spans="1:11" s="583" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="597" t="s">
+    <row r="26" spans="1:11" s="583" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="599" t="s">
         <v>2214</v>
       </c>
-      <c r="B26" s="597"/>
+      <c r="B26" s="599"/>
       <c r="C26" s="581"/>
       <c r="D26" s="581"/>
       <c r="E26" s="581"/>
@@ -42787,11 +42790,11 @@
       <c r="J26" s="582"/>
       <c r="K26" s="582"/>
     </row>
-    <row r="27" spans="1:11" s="587" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="584" t="s">
+    <row r="27" spans="1:11" s="587" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="728" t="s">
         <v>2227</v>
       </c>
-      <c r="B27" s="585" t="s">
+      <c r="B27" s="511" t="s">
         <v>2215</v>
       </c>
       <c r="C27" s="585" t="s">
@@ -42808,11 +42811,11 @@
       <c r="J27" s="586"/>
       <c r="K27" s="586"/>
     </row>
-    <row r="28" spans="1:11" s="588" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="584" t="s">
+    <row r="28" spans="1:11" s="588" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="728" t="s">
         <v>2228</v>
       </c>
-      <c r="B28" s="585" t="s">
+      <c r="B28" s="511" t="s">
         <v>2218</v>
       </c>
       <c r="C28" s="585" t="s">
@@ -42829,11 +42832,11 @@
       <c r="J28" s="586"/>
       <c r="K28" s="586"/>
     </row>
-    <row r="29" spans="1:11" s="587" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="584" t="s">
+    <row r="29" spans="1:11" s="587" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="728" t="s">
         <v>2228</v>
       </c>
-      <c r="B29" s="585" t="s">
+      <c r="B29" s="511" t="s">
         <v>2220</v>
       </c>
       <c r="C29" s="585" t="s">
@@ -42850,12 +42853,12 @@
       <c r="J29" s="586"/>
       <c r="K29" s="586"/>
     </row>
-    <row r="30" spans="1:11" s="589" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="589" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="589" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="588" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="588" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="584" t="s">
         <v>2229</v>
       </c>
@@ -42876,7 +42879,7 @@
       <c r="J31" s="586"/>
       <c r="K31" s="586"/>
     </row>
-    <row r="32" spans="1:11" s="588" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="588" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="584" t="s">
         <v>2230</v>
       </c>
@@ -42929,98 +42932,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="712">
+      <c r="A1" s="711">
         <v>1</v>
       </c>
-      <c r="B1" s="700" t="s">
+      <c r="B1" s="709" t="s">
         <v>509</v>
       </c>
-      <c r="C1" s="700" t="s">
+      <c r="C1" s="709" t="s">
         <v>510</v>
       </c>
-      <c r="D1" s="700" t="s">
+      <c r="D1" s="709" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="700" t="s">
+      <c r="E1" s="709" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="700" t="s">
+      <c r="F1" s="709" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="700" t="s">
+      <c r="G1" s="709" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="700" t="s">
+      <c r="H1" s="709" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="700" t="s">
+      <c r="I1" s="709" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="700" t="s">
+      <c r="J1" s="709" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="700" t="s">
+      <c r="K1" s="709" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="700" t="s">
+      <c r="L1" s="709" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="709" t="s">
+      <c r="M1" s="714" t="s">
         <v>511</v>
       </c>
-      <c r="N1" s="710" t="s">
+      <c r="N1" s="702" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="701"/>
-      <c r="B2" s="701"/>
-      <c r="C2" s="701"/>
-      <c r="D2" s="701"/>
-      <c r="E2" s="701"/>
-      <c r="F2" s="701"/>
-      <c r="G2" s="701"/>
-      <c r="H2" s="701"/>
-      <c r="I2" s="701"/>
-      <c r="J2" s="701"/>
-      <c r="K2" s="701"/>
-      <c r="L2" s="701"/>
-      <c r="M2" s="701"/>
-      <c r="N2" s="704"/>
+      <c r="A2" s="710"/>
+      <c r="B2" s="710"/>
+      <c r="C2" s="710"/>
+      <c r="D2" s="710"/>
+      <c r="E2" s="710"/>
+      <c r="F2" s="710"/>
+      <c r="G2" s="710"/>
+      <c r="H2" s="710"/>
+      <c r="I2" s="710"/>
+      <c r="J2" s="710"/>
+      <c r="K2" s="710"/>
+      <c r="L2" s="710"/>
+      <c r="M2" s="710"/>
+      <c r="N2" s="703"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="706" t="s">
+      <c r="A3" s="704" t="s">
         <v>513</v>
       </c>
-      <c r="B3" s="707"/>
-      <c r="C3" s="707"/>
-      <c r="D3" s="707"/>
-      <c r="E3" s="707"/>
-      <c r="F3" s="707"/>
-      <c r="G3" s="707"/>
-      <c r="H3" s="707"/>
-      <c r="I3" s="707"/>
-      <c r="J3" s="707"/>
-      <c r="K3" s="707"/>
-      <c r="L3" s="708"/>
+      <c r="B3" s="705"/>
+      <c r="C3" s="705"/>
+      <c r="D3" s="705"/>
+      <c r="E3" s="705"/>
+      <c r="F3" s="705"/>
+      <c r="G3" s="705"/>
+      <c r="H3" s="705"/>
+      <c r="I3" s="705"/>
+      <c r="J3" s="705"/>
+      <c r="K3" s="705"/>
+      <c r="L3" s="706"/>
       <c r="M3" s="225"/>
       <c r="N3" s="226"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="711" t="s">
+      <c r="A4" s="707" t="s">
         <v>514</v>
       </c>
-      <c r="B4" s="707"/>
-      <c r="C4" s="707"/>
-      <c r="D4" s="707"/>
-      <c r="E4" s="707"/>
-      <c r="F4" s="707"/>
-      <c r="G4" s="707"/>
-      <c r="H4" s="707"/>
-      <c r="I4" s="707"/>
-      <c r="J4" s="707"/>
-      <c r="K4" s="707"/>
-      <c r="L4" s="708"/>
+      <c r="B4" s="705"/>
+      <c r="C4" s="705"/>
+      <c r="D4" s="705"/>
+      <c r="E4" s="705"/>
+      <c r="F4" s="705"/>
+      <c r="G4" s="705"/>
+      <c r="H4" s="705"/>
+      <c r="I4" s="705"/>
+      <c r="J4" s="705"/>
+      <c r="K4" s="705"/>
+      <c r="L4" s="706"/>
       <c r="M4" s="227"/>
       <c r="N4" s="228"/>
     </row>
@@ -43194,20 +43197,20 @@
       <c r="N10" s="579"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="706" t="s">
+      <c r="A11" s="704" t="s">
         <v>536</v>
       </c>
-      <c r="B11" s="703"/>
-      <c r="C11" s="703"/>
-      <c r="D11" s="707"/>
-      <c r="E11" s="703"/>
-      <c r="F11" s="707"/>
-      <c r="G11" s="707"/>
-      <c r="H11" s="703"/>
-      <c r="I11" s="703"/>
-      <c r="J11" s="703"/>
-      <c r="K11" s="703"/>
-      <c r="L11" s="704"/>
+      <c r="B11" s="708"/>
+      <c r="C11" s="708"/>
+      <c r="D11" s="705"/>
+      <c r="E11" s="708"/>
+      <c r="F11" s="705"/>
+      <c r="G11" s="705"/>
+      <c r="H11" s="708"/>
+      <c r="I11" s="708"/>
+      <c r="J11" s="708"/>
+      <c r="K11" s="708"/>
+      <c r="L11" s="703"/>
       <c r="M11" s="225"/>
       <c r="N11" s="225"/>
     </row>
@@ -43268,20 +43271,20 @@
       <c r="N13" s="260"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="706" t="s">
+      <c r="A14" s="704" t="s">
         <v>544</v>
       </c>
-      <c r="B14" s="707"/>
-      <c r="C14" s="707"/>
-      <c r="D14" s="707"/>
-      <c r="E14" s="707"/>
-      <c r="F14" s="707"/>
-      <c r="G14" s="707"/>
-      <c r="H14" s="707"/>
-      <c r="I14" s="707"/>
-      <c r="J14" s="707"/>
-      <c r="K14" s="707"/>
-      <c r="L14" s="708"/>
+      <c r="B14" s="705"/>
+      <c r="C14" s="705"/>
+      <c r="D14" s="705"/>
+      <c r="E14" s="705"/>
+      <c r="F14" s="705"/>
+      <c r="G14" s="705"/>
+      <c r="H14" s="705"/>
+      <c r="I14" s="705"/>
+      <c r="J14" s="705"/>
+      <c r="K14" s="705"/>
+      <c r="L14" s="706"/>
       <c r="M14" s="259"/>
       <c r="N14" s="260"/>
     </row>
@@ -43342,20 +43345,20 @@
       <c r="N16" s="268"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="702" t="s">
+      <c r="A17" s="712" t="s">
         <v>550</v>
       </c>
-      <c r="B17" s="703"/>
-      <c r="C17" s="703"/>
-      <c r="D17" s="703"/>
-      <c r="E17" s="703"/>
-      <c r="F17" s="703"/>
-      <c r="G17" s="703"/>
-      <c r="H17" s="703"/>
-      <c r="I17" s="703"/>
-      <c r="J17" s="703"/>
-      <c r="K17" s="703"/>
-      <c r="L17" s="704"/>
+      <c r="B17" s="708"/>
+      <c r="C17" s="708"/>
+      <c r="D17" s="708"/>
+      <c r="E17" s="708"/>
+      <c r="F17" s="708"/>
+      <c r="G17" s="708"/>
+      <c r="H17" s="708"/>
+      <c r="I17" s="708"/>
+      <c r="J17" s="708"/>
+      <c r="K17" s="708"/>
+      <c r="L17" s="703"/>
       <c r="M17" s="269"/>
       <c r="N17" s="270"/>
     </row>
@@ -43672,20 +43675,20 @@
       <c r="N30" s="307"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="705" t="s">
+      <c r="A31" s="713" t="s">
         <v>588</v>
       </c>
-      <c r="B31" s="703"/>
-      <c r="C31" s="703"/>
-      <c r="D31" s="703"/>
-      <c r="E31" s="703"/>
-      <c r="F31" s="703"/>
-      <c r="G31" s="703"/>
-      <c r="H31" s="703"/>
-      <c r="I31" s="703"/>
-      <c r="J31" s="703"/>
-      <c r="K31" s="703"/>
-      <c r="L31" s="704"/>
+      <c r="B31" s="708"/>
+      <c r="C31" s="708"/>
+      <c r="D31" s="708"/>
+      <c r="E31" s="708"/>
+      <c r="F31" s="708"/>
+      <c r="G31" s="708"/>
+      <c r="H31" s="708"/>
+      <c r="I31" s="708"/>
+      <c r="J31" s="708"/>
+      <c r="K31" s="708"/>
+      <c r="L31" s="703"/>
       <c r="M31" s="308"/>
       <c r="N31" s="308"/>
     </row>
@@ -58149,6 +58152,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -58165,10 +58172,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58196,56 +58199,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="719" t="s">
+      <c r="A1" s="722" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="721" t="s">
+      <c r="B1" s="724" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="721" t="s">
+      <c r="C1" s="724" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="722" t="s">
+      <c r="D1" s="725" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="722" t="s">
+      <c r="E1" s="725" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="721" t="s">
+      <c r="F1" s="724" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="721" t="s">
+      <c r="G1" s="724" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="721" t="s">
+      <c r="H1" s="724" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="721" t="s">
+      <c r="I1" s="724" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="721" t="s">
+      <c r="J1" s="724" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="724" t="s">
+      <c r="K1" s="727" t="s">
         <v>511</v>
       </c>
-      <c r="L1" s="717" t="s">
+      <c r="L1" s="720" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="720"/>
-      <c r="B2" s="720"/>
-      <c r="C2" s="720"/>
-      <c r="D2" s="723"/>
-      <c r="E2" s="723"/>
-      <c r="F2" s="720"/>
-      <c r="G2" s="720"/>
-      <c r="H2" s="720"/>
-      <c r="I2" s="720"/>
-      <c r="J2" s="720"/>
-      <c r="K2" s="720"/>
-      <c r="L2" s="718"/>
+      <c r="A2" s="723"/>
+      <c r="B2" s="723"/>
+      <c r="C2" s="723"/>
+      <c r="D2" s="726"/>
+      <c r="E2" s="726"/>
+      <c r="F2" s="723"/>
+      <c r="G2" s="723"/>
+      <c r="H2" s="723"/>
+      <c r="I2" s="723"/>
+      <c r="J2" s="723"/>
+      <c r="K2" s="723"/>
+      <c r="L2" s="721"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="338" t="s">
@@ -58768,20 +58771,20 @@
       <c r="L25" s="335"/>
     </row>
     <row r="26" spans="1:12" s="366" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="713" t="s">
+      <c r="A26" s="716" t="s">
         <v>627</v>
       </c>
-      <c r="B26" s="714"/>
-      <c r="C26" s="714"/>
-      <c r="D26" s="714"/>
-      <c r="E26" s="714"/>
-      <c r="F26" s="714"/>
-      <c r="G26" s="714"/>
-      <c r="H26" s="714"/>
-      <c r="I26" s="714"/>
-      <c r="J26" s="714"/>
-      <c r="K26" s="714"/>
-      <c r="L26" s="715"/>
+      <c r="B26" s="717"/>
+      <c r="C26" s="717"/>
+      <c r="D26" s="717"/>
+      <c r="E26" s="717"/>
+      <c r="F26" s="717"/>
+      <c r="G26" s="717"/>
+      <c r="H26" s="717"/>
+      <c r="I26" s="717"/>
+      <c r="J26" s="717"/>
+      <c r="K26" s="717"/>
+      <c r="L26" s="718"/>
     </row>
     <row r="27" spans="1:12" s="366" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="186" t="s">
@@ -59424,20 +59427,20 @@
       <c r="L54" s="369"/>
     </row>
     <row r="55" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="716" t="s">
+      <c r="A55" s="715" t="s">
         <v>633</v>
       </c>
-      <c r="B55" s="716"/>
-      <c r="C55" s="716"/>
-      <c r="D55" s="716"/>
-      <c r="E55" s="716"/>
-      <c r="F55" s="716"/>
-      <c r="G55" s="716"/>
-      <c r="H55" s="716"/>
-      <c r="I55" s="716"/>
-      <c r="J55" s="716"/>
-      <c r="K55" s="716"/>
-      <c r="L55" s="716"/>
+      <c r="B55" s="715"/>
+      <c r="C55" s="715"/>
+      <c r="D55" s="715"/>
+      <c r="E55" s="715"/>
+      <c r="F55" s="715"/>
+      <c r="G55" s="715"/>
+      <c r="H55" s="715"/>
+      <c r="I55" s="715"/>
+      <c r="J55" s="715"/>
+      <c r="K55" s="715"/>
+      <c r="L55" s="715"/>
     </row>
     <row r="56" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="186" t="s">
@@ -59488,20 +59491,20 @@
       <c r="L57" s="369"/>
     </row>
     <row r="58" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="716" t="s">
+      <c r="A58" s="715" t="s">
         <v>786</v>
       </c>
-      <c r="B58" s="716"/>
-      <c r="C58" s="716"/>
-      <c r="D58" s="716"/>
-      <c r="E58" s="716"/>
-      <c r="F58" s="716"/>
-      <c r="G58" s="716"/>
-      <c r="H58" s="716"/>
-      <c r="I58" s="716"/>
-      <c r="J58" s="716"/>
-      <c r="K58" s="716"/>
-      <c r="L58" s="716"/>
+      <c r="B58" s="715"/>
+      <c r="C58" s="715"/>
+      <c r="D58" s="715"/>
+      <c r="E58" s="715"/>
+      <c r="F58" s="715"/>
+      <c r="G58" s="715"/>
+      <c r="H58" s="715"/>
+      <c r="I58" s="715"/>
+      <c r="J58" s="715"/>
+      <c r="K58" s="715"/>
+      <c r="L58" s="715"/>
     </row>
     <row r="59" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="186" t="s">
@@ -59552,20 +59555,20 @@
       <c r="L60" s="369"/>
     </row>
     <row r="61" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="716" t="s">
+      <c r="A61" s="715" t="s">
         <v>788</v>
       </c>
-      <c r="B61" s="716"/>
-      <c r="C61" s="716"/>
-      <c r="D61" s="716"/>
-      <c r="E61" s="716"/>
-      <c r="F61" s="716"/>
-      <c r="G61" s="716"/>
-      <c r="H61" s="716"/>
-      <c r="I61" s="716"/>
-      <c r="J61" s="716"/>
-      <c r="K61" s="716"/>
-      <c r="L61" s="716"/>
+      <c r="B61" s="715"/>
+      <c r="C61" s="715"/>
+      <c r="D61" s="715"/>
+      <c r="E61" s="715"/>
+      <c r="F61" s="715"/>
+      <c r="G61" s="715"/>
+      <c r="H61" s="715"/>
+      <c r="I61" s="715"/>
+      <c r="J61" s="715"/>
+      <c r="K61" s="715"/>
+      <c r="L61" s="715"/>
     </row>
     <row r="62" spans="1:12" s="442" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="438" t="s">
@@ -59616,20 +59619,20 @@
       <c r="L63" s="369"/>
     </row>
     <row r="64" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="713" t="s">
+      <c r="A64" s="716" t="s">
         <v>790</v>
       </c>
-      <c r="B64" s="714"/>
-      <c r="C64" s="714"/>
-      <c r="D64" s="714"/>
-      <c r="E64" s="714"/>
-      <c r="F64" s="714"/>
-      <c r="G64" s="714"/>
-      <c r="H64" s="714"/>
-      <c r="I64" s="714"/>
-      <c r="J64" s="714"/>
-      <c r="K64" s="714"/>
-      <c r="L64" s="715"/>
+      <c r="B64" s="717"/>
+      <c r="C64" s="717"/>
+      <c r="D64" s="717"/>
+      <c r="E64" s="717"/>
+      <c r="F64" s="717"/>
+      <c r="G64" s="717"/>
+      <c r="H64" s="717"/>
+      <c r="I64" s="717"/>
+      <c r="J64" s="717"/>
+      <c r="K64" s="717"/>
+      <c r="L64" s="718"/>
     </row>
     <row r="65" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="186" t="s">
@@ -59728,20 +59731,20 @@
       <c r="L68" s="369"/>
     </row>
     <row r="69" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="716" t="s">
+      <c r="A69" s="715" t="s">
         <v>794</v>
       </c>
-      <c r="B69" s="716"/>
-      <c r="C69" s="716"/>
-      <c r="D69" s="716"/>
-      <c r="E69" s="716"/>
-      <c r="F69" s="716"/>
-      <c r="G69" s="716"/>
-      <c r="H69" s="716"/>
-      <c r="I69" s="716"/>
-      <c r="J69" s="716"/>
-      <c r="K69" s="716"/>
-      <c r="L69" s="716"/>
+      <c r="B69" s="715"/>
+      <c r="C69" s="715"/>
+      <c r="D69" s="715"/>
+      <c r="E69" s="715"/>
+      <c r="F69" s="715"/>
+      <c r="G69" s="715"/>
+      <c r="H69" s="715"/>
+      <c r="I69" s="715"/>
+      <c r="J69" s="715"/>
+      <c r="K69" s="715"/>
+      <c r="L69" s="715"/>
     </row>
     <row r="70" spans="1:12" s="442" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="438" t="s">
@@ -59866,20 +59869,20 @@
       <c r="L74" s="369"/>
     </row>
     <row r="75" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="716" t="s">
+      <c r="A75" s="715" t="s">
         <v>799</v>
       </c>
-      <c r="B75" s="716"/>
-      <c r="C75" s="716"/>
-      <c r="D75" s="716"/>
-      <c r="E75" s="716"/>
-      <c r="F75" s="716"/>
-      <c r="G75" s="716"/>
-      <c r="H75" s="716"/>
-      <c r="I75" s="716"/>
-      <c r="J75" s="716"/>
-      <c r="K75" s="716"/>
-      <c r="L75" s="716"/>
+      <c r="B75" s="715"/>
+      <c r="C75" s="715"/>
+      <c r="D75" s="715"/>
+      <c r="E75" s="715"/>
+      <c r="F75" s="715"/>
+      <c r="G75" s="715"/>
+      <c r="H75" s="715"/>
+      <c r="I75" s="715"/>
+      <c r="J75" s="715"/>
+      <c r="K75" s="715"/>
+      <c r="L75" s="715"/>
     </row>
     <row r="76" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="186" t="s">
@@ -59954,20 +59957,20 @@
       <c r="L78" s="369"/>
     </row>
     <row r="79" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="716" t="s">
+      <c r="A79" s="715" t="s">
         <v>802</v>
       </c>
-      <c r="B79" s="716"/>
-      <c r="C79" s="716"/>
-      <c r="D79" s="716"/>
-      <c r="E79" s="716"/>
-      <c r="F79" s="716"/>
-      <c r="G79" s="716"/>
-      <c r="H79" s="716"/>
-      <c r="I79" s="716"/>
-      <c r="J79" s="716"/>
-      <c r="K79" s="716"/>
-      <c r="L79" s="716"/>
+      <c r="B79" s="715"/>
+      <c r="C79" s="715"/>
+      <c r="D79" s="715"/>
+      <c r="E79" s="715"/>
+      <c r="F79" s="715"/>
+      <c r="G79" s="715"/>
+      <c r="H79" s="715"/>
+      <c r="I79" s="715"/>
+      <c r="J79" s="715"/>
+      <c r="K79" s="715"/>
+      <c r="L79" s="715"/>
     </row>
     <row r="80" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="186" t="s">
@@ -60066,20 +60069,20 @@
       <c r="L83" s="369"/>
     </row>
     <row r="84" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="716" t="s">
+      <c r="A84" s="715" t="s">
         <v>805</v>
       </c>
-      <c r="B84" s="716"/>
-      <c r="C84" s="716"/>
-      <c r="D84" s="716"/>
-      <c r="E84" s="716"/>
-      <c r="F84" s="716"/>
-      <c r="G84" s="716"/>
-      <c r="H84" s="716"/>
-      <c r="I84" s="716"/>
-      <c r="J84" s="716"/>
-      <c r="K84" s="716"/>
-      <c r="L84" s="716"/>
+      <c r="B84" s="715"/>
+      <c r="C84" s="715"/>
+      <c r="D84" s="715"/>
+      <c r="E84" s="715"/>
+      <c r="F84" s="715"/>
+      <c r="G84" s="715"/>
+      <c r="H84" s="715"/>
+      <c r="I84" s="715"/>
+      <c r="J84" s="715"/>
+      <c r="K84" s="715"/>
+      <c r="L84" s="715"/>
     </row>
     <row r="85" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="186" t="s">
@@ -60130,20 +60133,20 @@
       <c r="L86" s="369"/>
     </row>
     <row r="87" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="716" t="s">
+      <c r="A87" s="715" t="s">
         <v>807</v>
       </c>
-      <c r="B87" s="716"/>
-      <c r="C87" s="716"/>
-      <c r="D87" s="716"/>
-      <c r="E87" s="716"/>
-      <c r="F87" s="716"/>
-      <c r="G87" s="716"/>
-      <c r="H87" s="716"/>
-      <c r="I87" s="716"/>
-      <c r="J87" s="716"/>
-      <c r="K87" s="716"/>
-      <c r="L87" s="716"/>
+      <c r="B87" s="715"/>
+      <c r="C87" s="715"/>
+      <c r="D87" s="715"/>
+      <c r="E87" s="715"/>
+      <c r="F87" s="715"/>
+      <c r="G87" s="715"/>
+      <c r="H87" s="715"/>
+      <c r="I87" s="715"/>
+      <c r="J87" s="715"/>
+      <c r="K87" s="715"/>
+      <c r="L87" s="715"/>
     </row>
     <row r="88" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="186" t="s">
@@ -60242,20 +60245,20 @@
       <c r="L91" s="369"/>
     </row>
     <row r="92" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="716" t="s">
+      <c r="A92" s="715" t="s">
         <v>811</v>
       </c>
-      <c r="B92" s="716"/>
-      <c r="C92" s="716"/>
-      <c r="D92" s="716"/>
-      <c r="E92" s="716"/>
-      <c r="F92" s="716"/>
-      <c r="G92" s="716"/>
-      <c r="H92" s="716"/>
-      <c r="I92" s="716"/>
-      <c r="J92" s="716"/>
-      <c r="K92" s="716"/>
-      <c r="L92" s="716"/>
+      <c r="B92" s="715"/>
+      <c r="C92" s="715"/>
+      <c r="D92" s="715"/>
+      <c r="E92" s="715"/>
+      <c r="F92" s="715"/>
+      <c r="G92" s="715"/>
+      <c r="H92" s="715"/>
+      <c r="I92" s="715"/>
+      <c r="J92" s="715"/>
+      <c r="K92" s="715"/>
+      <c r="L92" s="715"/>
     </row>
     <row r="93" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="186" t="s">
@@ -60330,20 +60333,20 @@
       <c r="L95" s="369"/>
     </row>
     <row r="96" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="716" t="s">
+      <c r="A96" s="715" t="s">
         <v>814</v>
       </c>
-      <c r="B96" s="716"/>
-      <c r="C96" s="716"/>
-      <c r="D96" s="716"/>
-      <c r="E96" s="716"/>
-      <c r="F96" s="716"/>
-      <c r="G96" s="716"/>
-      <c r="H96" s="716"/>
-      <c r="I96" s="716"/>
-      <c r="J96" s="716"/>
-      <c r="K96" s="716"/>
-      <c r="L96" s="716"/>
+      <c r="B96" s="715"/>
+      <c r="C96" s="715"/>
+      <c r="D96" s="715"/>
+      <c r="E96" s="715"/>
+      <c r="F96" s="715"/>
+      <c r="G96" s="715"/>
+      <c r="H96" s="715"/>
+      <c r="I96" s="715"/>
+      <c r="J96" s="715"/>
+      <c r="K96" s="715"/>
+      <c r="L96" s="715"/>
     </row>
     <row r="97" spans="1:12" s="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="186" t="s">
@@ -60528,20 +60531,20 @@
       <c r="L104" s="455"/>
     </row>
     <row r="105" spans="1:12" s="370" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="725" t="s">
+      <c r="A105" s="719" t="s">
         <v>634</v>
       </c>
-      <c r="B105" s="725"/>
-      <c r="C105" s="725"/>
-      <c r="D105" s="725"/>
-      <c r="E105" s="725"/>
-      <c r="F105" s="725"/>
-      <c r="G105" s="725"/>
-      <c r="H105" s="725"/>
-      <c r="I105" s="725"/>
-      <c r="J105" s="725"/>
-      <c r="K105" s="725"/>
-      <c r="L105" s="725"/>
+      <c r="B105" s="719"/>
+      <c r="C105" s="719"/>
+      <c r="D105" s="719"/>
+      <c r="E105" s="719"/>
+      <c r="F105" s="719"/>
+      <c r="G105" s="719"/>
+      <c r="H105" s="719"/>
+      <c r="I105" s="719"/>
+      <c r="J105" s="719"/>
+      <c r="K105" s="719"/>
+      <c r="L105" s="719"/>
     </row>
     <row r="106" spans="1:12" s="370" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="371" t="s">
@@ -60752,16 +60755,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A58:L58"/>
@@ -60777,6 +60770,16 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61279,25 +61282,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="606" t="s">
+      <c r="C5" s="636" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="607"/>
-      <c r="E5" s="608"/>
+      <c r="D5" s="637"/>
+      <c r="E5" s="638"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="598"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="598"/>
+      <c r="H5" s="634"/>
+      <c r="I5" s="634"/>
+      <c r="J5" s="634"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
-      <c r="E6" s="630"/>
+      <c r="C6" s="610"/>
+      <c r="D6" s="611"/>
+      <c r="E6" s="612"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -61307,23 +61310,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="610"/>
-      <c r="E7" s="611"/>
+      <c r="C7" s="639"/>
+      <c r="D7" s="640"/>
+      <c r="E7" s="641"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="598"/>
-      <c r="J7" s="598"/>
+      <c r="H7" s="634"/>
+      <c r="I7" s="634"/>
+      <c r="J7" s="634"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="612" t="s">
+      <c r="C8" s="642" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="613"/>
-      <c r="E8" s="614"/>
+      <c r="D8" s="643"/>
+      <c r="E8" s="644"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -61346,58 +61349,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="599" t="s">
+      <c r="B11" s="628" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="600"/>
-      <c r="D11" s="601"/>
-      <c r="E11" s="601"/>
-      <c r="F11" s="602"/>
+      <c r="C11" s="629"/>
+      <c r="D11" s="635"/>
+      <c r="E11" s="635"/>
+      <c r="F11" s="630"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="603"/>
-      <c r="D12" s="604"/>
-      <c r="E12" s="604"/>
-      <c r="F12" s="605"/>
+      <c r="C12" s="621"/>
+      <c r="D12" s="623"/>
+      <c r="E12" s="623"/>
+      <c r="F12" s="624"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="603"/>
-      <c r="D13" s="604"/>
-      <c r="E13" s="604"/>
-      <c r="F13" s="605"/>
+      <c r="C13" s="621"/>
+      <c r="D13" s="623"/>
+      <c r="E13" s="623"/>
+      <c r="F13" s="624"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="603"/>
-      <c r="D14" s="604"/>
-      <c r="E14" s="604"/>
-      <c r="F14" s="605"/>
+      <c r="C14" s="621"/>
+      <c r="D14" s="623"/>
+      <c r="E14" s="623"/>
+      <c r="F14" s="624"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="603"/>
-      <c r="D15" s="604"/>
-      <c r="E15" s="604"/>
-      <c r="F15" s="605"/>
+      <c r="C15" s="621"/>
+      <c r="D15" s="623"/>
+      <c r="E15" s="623"/>
+      <c r="F15" s="624"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="639"/>
-      <c r="D16" s="640"/>
-      <c r="E16" s="640"/>
-      <c r="F16" s="641"/>
+      <c r="C16" s="625"/>
+      <c r="D16" s="626"/>
+      <c r="E16" s="626"/>
+      <c r="F16" s="627"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -61407,13 +61410,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="599" t="s">
+      <c r="B18" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="600"/>
-      <c r="D18" s="600"/>
-      <c r="E18" s="600"/>
-      <c r="F18" s="602"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="629"/>
+      <c r="F18" s="630"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -61425,10 +61428,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="634" t="s">
+      <c r="E19" s="616" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="642"/>
+      <c r="F19" s="631"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -61440,73 +61443,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="603" t="s">
+      <c r="E20" s="621" t="s">
         <v>286</v>
       </c>
-      <c r="F20" s="615"/>
+      <c r="F20" s="622"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="603"/>
-      <c r="F21" s="615"/>
+      <c r="E21" s="621"/>
+      <c r="F21" s="622"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="603"/>
-      <c r="F22" s="615"/>
+      <c r="E22" s="621"/>
+      <c r="F22" s="622"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="603"/>
-      <c r="F23" s="615"/>
+      <c r="E23" s="621"/>
+      <c r="F23" s="622"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="603"/>
-      <c r="F24" s="615"/>
+      <c r="E24" s="621"/>
+      <c r="F24" s="622"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="603"/>
-      <c r="F25" s="615"/>
+      <c r="E25" s="621"/>
+      <c r="F25" s="622"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="603"/>
-      <c r="F26" s="615"/>
+      <c r="E26" s="621"/>
+      <c r="F26" s="622"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="603"/>
-      <c r="F27" s="615"/>
+      <c r="E27" s="621"/>
+      <c r="F27" s="622"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="603"/>
-      <c r="F28" s="615"/>
+      <c r="E28" s="621"/>
+      <c r="F28" s="622"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="616"/>
-      <c r="F29" s="617"/>
+      <c r="E29" s="632"/>
+      <c r="F29" s="633"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -61516,67 +61519,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="631" t="s">
+      <c r="B31" s="613" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="632"/>
-      <c r="D31" s="632"/>
-      <c r="E31" s="633"/>
+      <c r="C31" s="614"/>
+      <c r="D31" s="614"/>
+      <c r="E31" s="615"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="634" t="s">
+      <c r="C32" s="616" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="635"/>
-      <c r="E32" s="635"/>
+      <c r="D32" s="617"/>
+      <c r="E32" s="617"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="620"/>
-      <c r="D33" s="621"/>
-      <c r="E33" s="621"/>
+      <c r="C33" s="602"/>
+      <c r="D33" s="603"/>
+      <c r="E33" s="603"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="636"/>
-      <c r="D34" s="637"/>
-      <c r="E34" s="638"/>
+      <c r="C34" s="618"/>
+      <c r="D34" s="619"/>
+      <c r="E34" s="620"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="618"/>
-      <c r="D35" s="619"/>
-      <c r="E35" s="619"/>
+      <c r="C35" s="600"/>
+      <c r="D35" s="601"/>
+      <c r="E35" s="601"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="620"/>
-      <c r="D36" s="621"/>
-      <c r="E36" s="621"/>
+      <c r="C36" s="602"/>
+      <c r="D36" s="603"/>
+      <c r="E36" s="603"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="622"/>
-      <c r="D37" s="623"/>
-      <c r="E37" s="624"/>
+      <c r="C37" s="604"/>
+      <c r="D37" s="605"/>
+      <c r="E37" s="606"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="625"/>
-      <c r="D38" s="626"/>
-      <c r="E38" s="627"/>
+      <c r="C38" s="607"/>
+      <c r="D38" s="608"/>
+      <c r="E38" s="609"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -61602,6 +61605,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -61618,22 +61637,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -61670,10 +61673,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="643" t="s">
+      <c r="A1" s="681" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="643"/>
+      <c r="B1" s="681"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -61708,250 +61711,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="644" t="s">
+      <c r="A2" s="682" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="644" t="s">
+      <c r="B2" s="682" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="644" t="s">
+      <c r="C2" s="682" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="647" t="s">
+      <c r="D2" s="685" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="647"/>
-      <c r="F2" s="647"/>
-      <c r="G2" s="656" t="s">
+      <c r="E2" s="685"/>
+      <c r="F2" s="685"/>
+      <c r="G2" s="651" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="657"/>
-      <c r="I2" s="657"/>
-      <c r="J2" s="658"/>
-      <c r="K2" s="674" t="s">
+      <c r="H2" s="652"/>
+      <c r="I2" s="652"/>
+      <c r="J2" s="657"/>
+      <c r="K2" s="645" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="674"/>
-      <c r="M2" s="656" t="s">
+      <c r="L2" s="645"/>
+      <c r="M2" s="651" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="657"/>
-      <c r="O2" s="658"/>
-      <c r="P2" s="656" t="s">
+      <c r="N2" s="652"/>
+      <c r="O2" s="657"/>
+      <c r="P2" s="651" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="658"/>
-      <c r="R2" s="656" t="s">
+      <c r="Q2" s="657"/>
+      <c r="R2" s="651" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="657"/>
-      <c r="T2" s="656" t="s">
+      <c r="S2" s="652"/>
+      <c r="T2" s="651" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="657"/>
-      <c r="V2" s="657"/>
-      <c r="W2" s="657"/>
-      <c r="X2" s="658"/>
-      <c r="Y2" s="656" t="s">
+      <c r="U2" s="652"/>
+      <c r="V2" s="652"/>
+      <c r="W2" s="652"/>
+      <c r="X2" s="657"/>
+      <c r="Y2" s="651" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="657"/>
-      <c r="AA2" s="657"/>
-      <c r="AB2" s="658"/>
-      <c r="AC2" s="650" t="s">
+      <c r="Z2" s="652"/>
+      <c r="AA2" s="652"/>
+      <c r="AB2" s="657"/>
+      <c r="AC2" s="666" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="651"/>
-      <c r="AE2" s="651"/>
-      <c r="AF2" s="666"/>
-      <c r="AG2" s="650" t="s">
+      <c r="AD2" s="667"/>
+      <c r="AE2" s="667"/>
+      <c r="AF2" s="676"/>
+      <c r="AG2" s="666" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="651"/>
-      <c r="AI2" s="651"/>
+      <c r="AH2" s="667"/>
+      <c r="AI2" s="667"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="645"/>
-      <c r="B3" s="645"/>
-      <c r="C3" s="645"/>
-      <c r="D3" s="647"/>
-      <c r="E3" s="647"/>
-      <c r="F3" s="647"/>
-      <c r="G3" s="652"/>
-      <c r="H3" s="653"/>
-      <c r="I3" s="653"/>
-      <c r="J3" s="659"/>
-      <c r="K3" s="674" t="s">
+      <c r="A3" s="683"/>
+      <c r="B3" s="683"/>
+      <c r="C3" s="683"/>
+      <c r="D3" s="685"/>
+      <c r="E3" s="685"/>
+      <c r="F3" s="685"/>
+      <c r="G3" s="653"/>
+      <c r="H3" s="654"/>
+      <c r="I3" s="654"/>
+      <c r="J3" s="658"/>
+      <c r="K3" s="645" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="674"/>
-      <c r="M3" s="652"/>
-      <c r="N3" s="653"/>
-      <c r="O3" s="659"/>
-      <c r="P3" s="652"/>
-      <c r="Q3" s="659"/>
-      <c r="R3" s="652"/>
-      <c r="S3" s="653"/>
-      <c r="T3" s="652"/>
-      <c r="U3" s="653"/>
-      <c r="V3" s="653"/>
-      <c r="W3" s="653"/>
-      <c r="X3" s="659"/>
-      <c r="Y3" s="652"/>
-      <c r="Z3" s="653"/>
-      <c r="AA3" s="653"/>
-      <c r="AB3" s="659"/>
-      <c r="AC3" s="652"/>
-      <c r="AD3" s="653"/>
-      <c r="AE3" s="653"/>
-      <c r="AF3" s="659"/>
-      <c r="AG3" s="652"/>
-      <c r="AH3" s="653"/>
-      <c r="AI3" s="653"/>
+      <c r="L3" s="645"/>
+      <c r="M3" s="653"/>
+      <c r="N3" s="654"/>
+      <c r="O3" s="658"/>
+      <c r="P3" s="653"/>
+      <c r="Q3" s="658"/>
+      <c r="R3" s="653"/>
+      <c r="S3" s="654"/>
+      <c r="T3" s="653"/>
+      <c r="U3" s="654"/>
+      <c r="V3" s="654"/>
+      <c r="W3" s="654"/>
+      <c r="X3" s="658"/>
+      <c r="Y3" s="653"/>
+      <c r="Z3" s="654"/>
+      <c r="AA3" s="654"/>
+      <c r="AB3" s="658"/>
+      <c r="AC3" s="653"/>
+      <c r="AD3" s="654"/>
+      <c r="AE3" s="654"/>
+      <c r="AF3" s="658"/>
+      <c r="AG3" s="653"/>
+      <c r="AH3" s="654"/>
+      <c r="AI3" s="654"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="645"/>
-      <c r="B4" s="645"/>
-      <c r="C4" s="645"/>
-      <c r="D4" s="648" t="s">
+      <c r="A4" s="683"/>
+      <c r="B4" s="683"/>
+      <c r="C4" s="683"/>
+      <c r="D4" s="664" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="648" t="s">
+      <c r="E4" s="664" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="648" t="s">
+      <c r="F4" s="664" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="672" t="s">
+      <c r="G4" s="662" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="672" t="s">
+      <c r="H4" s="662" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="672" t="s">
+      <c r="I4" s="662" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="672" t="s">
+      <c r="J4" s="662" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="675" t="s">
+      <c r="K4" s="646" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="675" t="s">
+      <c r="L4" s="646" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="677" t="s">
+      <c r="M4" s="648" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="677" t="s">
+      <c r="N4" s="648" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="681" t="s">
+      <c r="O4" s="659" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="682" t="s">
+      <c r="P4" s="660" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="682" t="s">
+      <c r="Q4" s="660" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="679" t="s">
+      <c r="R4" s="655" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="679" t="s">
+      <c r="S4" s="655" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="654" t="s">
+      <c r="T4" s="668" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="670" t="s">
+      <c r="U4" s="679" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="671"/>
-      <c r="W4" s="669" t="s">
+      <c r="V4" s="680"/>
+      <c r="W4" s="650" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="669" t="s">
+      <c r="X4" s="650" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="660" t="s">
+      <c r="Y4" s="670" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="660" t="s">
+      <c r="Z4" s="670" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="664" t="s">
+      <c r="AA4" s="674" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="665"/>
-      <c r="AC4" s="662" t="s">
+      <c r="AB4" s="675"/>
+      <c r="AC4" s="672" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="662" t="s">
+      <c r="AD4" s="672" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="667" t="s">
+      <c r="AE4" s="677" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="668"/>
-      <c r="AG4" s="648" t="s">
+      <c r="AF4" s="678"/>
+      <c r="AG4" s="664" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="648" t="s">
+      <c r="AH4" s="664" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="648" t="s">
+      <c r="AI4" s="664" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="646"/>
-      <c r="B5" s="646"/>
-      <c r="C5" s="646"/>
-      <c r="D5" s="649"/>
-      <c r="E5" s="649"/>
-      <c r="F5" s="649"/>
-      <c r="G5" s="673"/>
-      <c r="H5" s="673"/>
-      <c r="I5" s="673"/>
-      <c r="J5" s="673"/>
-      <c r="K5" s="676"/>
-      <c r="L5" s="676"/>
-      <c r="M5" s="678"/>
-      <c r="N5" s="678"/>
-      <c r="O5" s="678"/>
-      <c r="P5" s="683"/>
-      <c r="Q5" s="683"/>
-      <c r="R5" s="680"/>
-      <c r="S5" s="680"/>
-      <c r="T5" s="655"/>
+      <c r="A5" s="684"/>
+      <c r="B5" s="684"/>
+      <c r="C5" s="684"/>
+      <c r="D5" s="665"/>
+      <c r="E5" s="665"/>
+      <c r="F5" s="665"/>
+      <c r="G5" s="663"/>
+      <c r="H5" s="663"/>
+      <c r="I5" s="663"/>
+      <c r="J5" s="663"/>
+      <c r="K5" s="647"/>
+      <c r="L5" s="647"/>
+      <c r="M5" s="649"/>
+      <c r="N5" s="649"/>
+      <c r="O5" s="649"/>
+      <c r="P5" s="661"/>
+      <c r="Q5" s="661"/>
+      <c r="R5" s="656"/>
+      <c r="S5" s="656"/>
+      <c r="T5" s="669"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="669"/>
-      <c r="X5" s="669"/>
-      <c r="Y5" s="661"/>
-      <c r="Z5" s="661"/>
+      <c r="W5" s="650"/>
+      <c r="X5" s="650"/>
+      <c r="Y5" s="671"/>
+      <c r="Z5" s="671"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="663"/>
-      <c r="AD5" s="663"/>
+      <c r="AC5" s="673"/>
+      <c r="AD5" s="673"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="649"/>
-      <c r="AH5" s="649"/>
-      <c r="AI5" s="649"/>
+      <c r="AG5" s="665"/>
+      <c r="AH5" s="665"/>
+      <c r="AI5" s="665"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -62214,26 +62217,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -62250,14 +62241,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -62310,7 +62313,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="688" t="s">
+      <c r="B2" s="687" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -62323,7 +62326,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="689"/>
+      <c r="B3" s="688"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -62334,7 +62337,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="684" t="s">
+      <c r="B4" s="692" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -62347,7 +62350,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="685"/>
+      <c r="B5" s="694"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -62358,7 +62361,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="685"/>
+      <c r="B6" s="694"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -62369,7 +62372,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="685"/>
+      <c r="B7" s="694"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -62380,7 +62383,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="686"/>
+      <c r="B8" s="693"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -62391,7 +62394,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="684" t="s">
+      <c r="B9" s="692" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -62404,8 +62407,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="685"/>
-      <c r="C10" s="684" t="s">
+      <c r="B10" s="694"/>
+      <c r="C10" s="692" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -62417,8 +62420,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="685"/>
-      <c r="C11" s="686"/>
+      <c r="B11" s="694"/>
+      <c r="C11" s="693"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -62428,8 +62431,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="685"/>
-      <c r="C12" s="684" t="s">
+      <c r="B12" s="694"/>
+      <c r="C12" s="692" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="107" t="s">
@@ -62443,9 +62446,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="685"/>
-      <c r="C13" s="685"/>
-      <c r="D13" s="684" t="s">
+      <c r="B13" s="694"/>
+      <c r="C13" s="694"/>
+      <c r="D13" s="692" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -62456,9 +62459,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="685"/>
-      <c r="C14" s="685"/>
-      <c r="D14" s="685"/>
+      <c r="B14" s="694"/>
+      <c r="C14" s="694"/>
+      <c r="D14" s="694"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -62467,9 +62470,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="685"/>
-      <c r="C15" s="685"/>
-      <c r="D15" s="685"/>
+      <c r="B15" s="694"/>
+      <c r="C15" s="694"/>
+      <c r="D15" s="694"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -62478,9 +62481,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="685"/>
-      <c r="C16" s="685"/>
-      <c r="D16" s="685"/>
+      <c r="B16" s="694"/>
+      <c r="C16" s="694"/>
+      <c r="D16" s="694"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -62489,9 +62492,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="685"/>
-      <c r="C17" s="685"/>
-      <c r="D17" s="686"/>
+      <c r="B17" s="694"/>
+      <c r="C17" s="694"/>
+      <c r="D17" s="693"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -62500,8 +62503,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="685"/>
-      <c r="C18" s="685"/>
+      <c r="B18" s="694"/>
+      <c r="C18" s="694"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -62513,9 +62516,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="685"/>
-      <c r="C19" s="685"/>
-      <c r="D19" s="684" t="s">
+      <c r="B19" s="694"/>
+      <c r="C19" s="694"/>
+      <c r="D19" s="692" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -62526,9 +62529,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="685"/>
-      <c r="C20" s="686"/>
-      <c r="D20" s="686"/>
+      <c r="B20" s="694"/>
+      <c r="C20" s="693"/>
+      <c r="D20" s="693"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -62537,11 +62540,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="685"/>
-      <c r="C21" s="684" t="s">
+      <c r="B21" s="694"/>
+      <c r="C21" s="692" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="684" t="s">
+      <c r="D21" s="692" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -62552,9 +62555,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="685"/>
-      <c r="C22" s="685"/>
-      <c r="D22" s="686"/>
+      <c r="B22" s="694"/>
+      <c r="C22" s="694"/>
+      <c r="D22" s="693"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -62563,9 +62566,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="685"/>
-      <c r="C23" s="685"/>
-      <c r="D23" s="684" t="s">
+      <c r="B23" s="694"/>
+      <c r="C23" s="694"/>
+      <c r="D23" s="692" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -62576,9 +62579,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="685"/>
-      <c r="C24" s="685"/>
-      <c r="D24" s="685"/>
+      <c r="B24" s="694"/>
+      <c r="C24" s="694"/>
+      <c r="D24" s="694"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -62587,9 +62590,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="685"/>
-      <c r="C25" s="685"/>
-      <c r="D25" s="686"/>
+      <c r="B25" s="694"/>
+      <c r="C25" s="694"/>
+      <c r="D25" s="693"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -62598,8 +62601,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="685"/>
-      <c r="C26" s="686"/>
+      <c r="B26" s="694"/>
+      <c r="C26" s="693"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -62611,8 +62614,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="685"/>
-      <c r="C27" s="690" t="s">
+      <c r="B27" s="694"/>
+      <c r="C27" s="689" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="107" t="s">
@@ -62627,8 +62630,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="685"/>
-      <c r="C28" s="691"/>
+      <c r="B28" s="694"/>
+      <c r="C28" s="690"/>
       <c r="D28" s="107" t="s">
         <v>134</v>
       </c>
@@ -62641,8 +62644,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="685"/>
-      <c r="C29" s="692"/>
+      <c r="B29" s="694"/>
+      <c r="C29" s="691"/>
       <c r="D29" s="107" t="s">
         <v>135</v>
       </c>
@@ -62655,7 +62658,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="685"/>
+      <c r="B30" s="694"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -62666,7 +62669,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="685"/>
+      <c r="B31" s="694"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -62677,7 +62680,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="685"/>
+      <c r="B32" s="694"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -62688,8 +62691,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="685"/>
-      <c r="C33" s="684" t="s">
+      <c r="B33" s="694"/>
+      <c r="C33" s="692" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -62701,8 +62704,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="685"/>
-      <c r="C34" s="686"/>
+      <c r="B34" s="694"/>
+      <c r="C34" s="693"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -62712,7 +62715,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="686"/>
+      <c r="B35" s="693"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -62726,7 +62729,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="684" t="s">
+      <c r="B36" s="692" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -62739,7 +62742,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="685"/>
+      <c r="B37" s="694"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -62750,7 +62753,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="685"/>
+      <c r="B38" s="694"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -62761,7 +62764,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="686"/>
+      <c r="B39" s="693"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -62775,7 +62778,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="684" t="s">
+      <c r="B40" s="692" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -62788,8 +62791,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="685"/>
-      <c r="C41" s="684" t="s">
+      <c r="B41" s="694"/>
+      <c r="C41" s="692" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -62801,8 +62804,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="685"/>
-      <c r="C42" s="686"/>
+      <c r="B42" s="694"/>
+      <c r="C42" s="693"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -62812,7 +62815,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="686"/>
+      <c r="B43" s="693"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -62823,7 +62826,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="684" t="s">
+      <c r="B44" s="692" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -62837,7 +62840,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="685"/>
+      <c r="B45" s="694"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -62848,7 +62851,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="685"/>
+      <c r="B46" s="694"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -62859,7 +62862,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="685"/>
+      <c r="B47" s="694"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -62870,7 +62873,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="686"/>
+      <c r="B48" s="693"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -62928,10 +62931,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="684" t="s">
+      <c r="C53" s="692" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="684" t="s">
+      <c r="D53" s="692" t="s">
         <v>166</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -62943,8 +62946,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="685"/>
-      <c r="D54" s="685"/>
+      <c r="C54" s="694"/>
+      <c r="D54" s="694"/>
       <c r="E54" s="66" t="s">
         <v>170</v>
       </c>
@@ -62954,8 +62957,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="685"/>
-      <c r="D55" s="686"/>
+      <c r="C55" s="694"/>
+      <c r="D55" s="693"/>
       <c r="E55" s="66" t="s">
         <v>171</v>
       </c>
@@ -62965,11 +62968,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="685"/>
-      <c r="D56" s="684" t="s">
+      <c r="C56" s="694"/>
+      <c r="D56" s="692" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="684" t="s">
+      <c r="E56" s="692" t="s">
         <v>172</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -62980,9 +62983,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="685"/>
-      <c r="D57" s="685"/>
-      <c r="E57" s="685"/>
+      <c r="C57" s="694"/>
+      <c r="D57" s="694"/>
+      <c r="E57" s="694"/>
       <c r="F57" s="66" t="s">
         <v>174</v>
       </c>
@@ -62991,9 +62994,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="685"/>
-      <c r="D58" s="685"/>
-      <c r="E58" s="686"/>
+      <c r="C58" s="694"/>
+      <c r="D58" s="694"/>
+      <c r="E58" s="693"/>
       <c r="F58" s="66" t="s">
         <v>171</v>
       </c>
@@ -63002,9 +63005,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="685"/>
-      <c r="D59" s="685"/>
-      <c r="E59" s="684" t="s">
+      <c r="C59" s="694"/>
+      <c r="D59" s="694"/>
+      <c r="E59" s="692" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -63015,9 +63018,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="685"/>
-      <c r="D60" s="686"/>
-      <c r="E60" s="686"/>
+      <c r="C60" s="694"/>
+      <c r="D60" s="693"/>
+      <c r="E60" s="693"/>
       <c r="F60" s="66" t="s">
         <v>176</v>
       </c>
@@ -63026,8 +63029,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="685"/>
-      <c r="D61" s="684" t="s">
+      <c r="C61" s="694"/>
+      <c r="D61" s="692" t="s">
         <v>168</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -63039,8 +63042,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="685"/>
-      <c r="D62" s="685"/>
+      <c r="C62" s="694"/>
+      <c r="D62" s="694"/>
       <c r="E62" s="66" t="s">
         <v>178</v>
       </c>
@@ -63050,8 +63053,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="686"/>
-      <c r="D63" s="686"/>
+      <c r="C63" s="693"/>
+      <c r="D63" s="693"/>
       <c r="E63" s="66" t="s">
         <v>179</v>
       </c>
@@ -63064,7 +63067,7 @@
       <c r="C64" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="684" t="s">
+      <c r="D64" s="692" t="s">
         <v>180</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -63077,7 +63080,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="686"/>
+      <c r="D65" s="693"/>
       <c r="E65" s="66" t="s">
         <v>182</v>
       </c>
@@ -63163,7 +63166,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="687" t="s">
+      <c r="B73" s="686" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -63176,7 +63179,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="687"/>
+      <c r="B74" s="686"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -63187,7 +63190,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="687"/>
+      <c r="B75" s="686"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -63198,7 +63201,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="687"/>
+      <c r="B76" s="686"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -63209,7 +63212,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="687"/>
+      <c r="B77" s="686"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -63220,7 +63223,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="687"/>
+      <c r="B78" s="686"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -63231,7 +63234,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="687"/>
+      <c r="B79" s="686"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -63242,7 +63245,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="687"/>
+      <c r="B80" s="686"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -63264,6 +63267,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -63276,18 +63291,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63857,7 +63860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -63929,10 +63932,10 @@
       <c r="M2" s="162"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="693" t="s">
+      <c r="A3" s="695" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="694"/>
+      <c r="B3" s="696"/>
       <c r="C3" s="191"/>
       <c r="D3" s="191"/>
       <c r="E3" s="192"/>
@@ -63967,10 +63970,10 @@
       <c r="K4" s="551"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="693" t="s">
+      <c r="A5" s="695" t="s">
         <v>834</v>
       </c>
-      <c r="B5" s="694"/>
+      <c r="B5" s="696"/>
       <c r="C5" s="191"/>
       <c r="D5" s="191"/>
       <c r="E5" s="197"/>
@@ -64053,10 +64056,10 @@
       <c r="M8" s="191"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="693" t="s">
+      <c r="A9" s="695" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="694"/>
+      <c r="B9" s="696"/>
       <c r="C9" s="191"/>
       <c r="D9" s="191"/>
       <c r="E9" s="197"/>
@@ -64277,10 +64280,10 @@
       <c r="M18" s="191"/>
     </row>
     <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="693" t="s">
+      <c r="A19" s="695" t="s">
         <v>468</v>
       </c>
-      <c r="B19" s="694"/>
+      <c r="B19" s="696"/>
       <c r="C19" s="219"/>
       <c r="D19" s="219"/>
       <c r="E19" s="213"/>
@@ -64386,10 +64389,10 @@
       <c r="M23" s="219"/>
     </row>
     <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="693" t="s">
+      <c r="A24" s="695" t="s">
         <v>471</v>
       </c>
-      <c r="B24" s="694"/>
+      <c r="B24" s="696"/>
       <c r="C24" s="219"/>
       <c r="D24" s="219"/>
       <c r="E24" s="212"/>
@@ -64656,10 +64659,10 @@
       <c r="M35" s="223"/>
     </row>
     <row r="36" spans="1:13" s="387" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="695" t="s">
+      <c r="A36" s="699" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="696"/>
+      <c r="B36" s="700"/>
       <c r="C36" s="381"/>
       <c r="D36" s="382"/>
       <c r="E36" s="383"/>
@@ -64721,10 +64724,10 @@
       <c r="M38" s="382"/>
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="693" t="s">
+      <c r="A39" s="695" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="694"/>
+      <c r="B39" s="696"/>
       <c r="C39" s="191"/>
       <c r="D39" s="191"/>
       <c r="E39" s="206"/>
@@ -64784,10 +64787,10 @@
       <c r="M41" s="191"/>
     </row>
     <row r="42" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="693" t="s">
+      <c r="A42" s="695" t="s">
         <v>483</v>
       </c>
-      <c r="B42" s="694"/>
+      <c r="B42" s="696"/>
       <c r="C42" s="191"/>
       <c r="D42" s="191"/>
       <c r="E42" s="206"/>
@@ -65332,10 +65335,10 @@
       <c r="M65" s="191"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="693" t="s">
+      <c r="A66" s="695" t="s">
         <v>244</v>
       </c>
-      <c r="B66" s="694"/>
+      <c r="B66" s="696"/>
       <c r="C66" s="191"/>
       <c r="D66" s="191"/>
       <c r="E66" s="206"/>
@@ -65468,10 +65471,10 @@
       <c r="C72" s="556" t="s">
         <v>2162</v>
       </c>
-      <c r="D72" s="726" t="s">
+      <c r="D72" s="597" t="s">
         <v>2287</v>
       </c>
-      <c r="E72" s="727"/>
+      <c r="E72" s="598"/>
       <c r="F72" s="558"/>
       <c r="G72" s="558"/>
       <c r="H72" s="558"/>
@@ -65491,10 +65494,10 @@
       <c r="C73" s="556" t="s">
         <v>2162</v>
       </c>
-      <c r="D73" s="726" t="s">
+      <c r="D73" s="597" t="s">
         <v>2288</v>
       </c>
-      <c r="E73" s="727"/>
+      <c r="E73" s="598"/>
       <c r="F73" s="558"/>
       <c r="G73" s="558"/>
       <c r="H73" s="558"/>
@@ -65595,16 +65598,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
